--- a/Registries/Notification Command Class, list of assigned Notifications.xlsx
+++ b/Registries/Notification Command Class, list of assigned Notifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Z-Wave\Client Files\Specifications\2021B publication\other\Registries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F748110-3C70-476E-9086-9A6A3C0D5A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B07DCA-9C7F-4CA5-AF4D-4959F1C57A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12707" yWindow="-4387" windowWidth="25786" windowHeight="13987" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="345" windowWidth="21600" windowHeight="9750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontpage" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Notifications" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Notifications!$A$2:$J$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Notifications!$A$2:$J$262</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Frontpage!$A$1:$A$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Changes!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Notifications!$1:$2</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="472">
   <si>
     <t>Notification Type</t>
   </si>
@@ -917,6 +917,9 @@
     <t>Trademark Notice</t>
   </si>
   <si>
+    <t>License Restrictions Warranty/Consequential Damages Disclaimer</t>
+  </si>
+  <si>
     <t>Revision Record</t>
   </si>
   <si>
@@ -1468,6 +1471,12 @@
   </si>
   <si>
     <t>0x21</t>
+  </si>
+  <si>
+    <t>Z-Wave Alliance, Inc.</t>
+  </si>
+  <si>
+    <t>his document is the property of the Z-Wave Alliance. The data contained herein, in whole or in part, may not be duplicated, used or disclosed outside the recipient for any purpose. This restriction does not limit the recipient's right to use information contained in the data if it is obtained from another source without restriction.</t>
   </si>
   <si>
     <r>
@@ -1513,38 +1522,32 @@
     <t>Added a Lock/Unlock event notifications supporting the User Code v2.</t>
   </si>
   <si>
-    <t>Restrictions: Public</t>
-  </si>
-  <si>
-    <t>Approved by: Z-Wave Alliance Board of Directors</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION DISCLAIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">© 2021 Z-Wave Alliance, Inc., All Rights Reserved	This document may only be copied and distributed internally. </t>
-  </si>
-  <si>
-    <t>THIS SPECIFICATION IS BEING OFFERED WITHOUT ANY WARRANTY WHATSOEVER, AND IN PARTICULAR, ANY WARRANTY OF NON-INFRINGEMENT IS EXPRESSLY DISCLAIMED.  ANY USE OF THIS SPECIFICATION SHALL BE MADE ENTIRELY AT THE IMPLEMENTER'S OWN RISK, AND NEITHER THE ALLIANCE, NOR ANY OF ITS MEMBERS OR SUBMITTERS, SHALL HAVE ANY LIABILITY WHATSOEVER TO ANY IMPLEMENTER OR THIRD PARTY FOR ANY DAMAGES OF ANY NATURE WHATSOEVER, DIRECTLY OR INDIRECTLY, ARISING FROM THE USE OF THIS SPECIFICATION.</t>
-  </si>
-  <si>
-    <t>DATE: 2021.03.18</t>
-  </si>
-  <si>
-    <t>ZWA Board</t>
-  </si>
-  <si>
-    <t>2021.03.18</t>
-  </si>
-  <si>
-    <t>Approved for Publication</t>
+    <t>Jia Li</t>
+  </si>
+  <si>
+    <t>Adding DC jack notification</t>
+  </si>
+  <si>
+    <t>DC Jack Status</t>
+  </si>
+  <si>
+    <t>DC Jack Connected</t>
+  </si>
+  <si>
+    <t>This state represents that a source was connected into the DC Jack of a device</t>
+  </si>
+  <si>
+    <t>DC Jack Disconnected</t>
+  </si>
+  <si>
+    <t>This state represents that a source was disconnected from the DC Jack of a device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1608,14 +1611,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1732,14 +1727,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1750,7 +1741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1796,6 +1787,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1881,25 +1875,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1919,38 +1895,29 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2284942</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1051770</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3105150" cy="1371600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Logo, company name&#10;&#10;Description automatically generated">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ACB009-6C7C-4D36-A558-F68A0737CD90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1958,7 +1925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2284942" cy="1049653"/>
+          <a:ext cx="3105150" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,7 +1933,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2291,66 +2258,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="115.7109375" customWidth="1"/>
+    <col min="1" max="1" width="115.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="277.5" x14ac:dyDescent="0.75">
       <c r="A1" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>466</v>
-      </c>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="46.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="3" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;L© 2021 Z-Wave Alliance, Inc., All Rights Reserved This document may only be copied and distributed internally. </oddFooter>
-  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2359,27 +2308,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="73.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="73.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="14" t="s">
         <v>207</v>
       </c>
@@ -2393,7 +2342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="59" x14ac:dyDescent="0.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2404,10 +2353,10 @@
         <v>42712</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2418,10 +2367,10 @@
         <v>42723</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2432,147 +2381,147 @@
         <v>42755</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <v>42979</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="D6" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="28">
         <v>43164</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="D7" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="28">
         <v>43282</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="D8" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="28">
         <v>43466</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="D9" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="28">
         <v>43556</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="31" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="C11" s="28">
         <v>43647</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="D11" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="28">
         <v>43831</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="D12" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="28">
         <v>43983</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="D13" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="28">
         <v>44105</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
-        <v>13</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>470</v>
+      <c r="D14" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="47">
+        <v>44504</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -2581,9 +2530,6 @@
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;L© 2021 Z-Wave Alliance, Inc., All Rights Reserved This document may only be copied and distributed internally. </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -2592,45 +2538,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115:A136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="35.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="48" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="35.7109375" style="1"/>
+    <col min="10" max="10" width="67.1328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="35.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2644,7 +2590,7 @@
         <v>230</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>249</v>
@@ -2656,24 +2602,24 @@
         <v>255</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>224</v>
@@ -2688,13 +2634,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="5" t="s">
         <v>250</v>
       </c>
@@ -2705,7 +2651,7 @@
         <v>234</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -2718,9 +2664,9 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="5" t="s">
         <v>250</v>
       </c>
@@ -2742,9 +2688,9 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="5" t="s">
         <v>250</v>
       </c>
@@ -2755,7 +2701,7 @@
         <v>234</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
@@ -2766,9 +2712,9 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="5" t="s">
         <v>250</v>
       </c>
@@ -2792,9 +2738,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>250</v>
       </c>
@@ -2805,7 +2751,7 @@
         <v>234</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>8</v>
@@ -2818,9 +2764,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="5" t="s">
         <v>250</v>
       </c>
@@ -2844,14 +2790,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
+    <row r="10" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>234</v>
@@ -2870,14 +2816,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
+    <row r="11" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>234</v>
@@ -2896,9 +2842,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>224</v>
       </c>
@@ -2909,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>22</v>
@@ -2920,18 +2866,18 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>224</v>
@@ -2946,13 +2892,13 @@
         <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+    <row r="14" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>250</v>
       </c>
@@ -2963,7 +2909,7 @@
         <v>234</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>4</v>
@@ -2976,9 +2922,9 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="5" t="s">
         <v>250</v>
       </c>
@@ -3000,9 +2946,9 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+    <row r="16" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>250</v>
       </c>
@@ -3028,9 +2974,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="5" t="s">
         <v>250</v>
       </c>
@@ -3041,7 +2987,7 @@
         <v>234</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>8</v>
@@ -3054,9 +3000,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+    <row r="18" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>250</v>
       </c>
@@ -3078,9 +3024,9 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="5" t="s">
         <v>250</v>
       </c>
@@ -3102,14 +3048,14 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
+    <row r="20" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>234</v>
@@ -3126,9 +3072,9 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="5" t="s">
         <v>224</v>
       </c>
@@ -3139,7 +3085,7 @@
         <v>224</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>22</v>
@@ -3150,18 +3096,18 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>224</v>
@@ -3176,13 +3122,13 @@
         <v>13</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+    <row r="23" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5" t="s">
         <v>250</v>
       </c>
@@ -3193,7 +3139,7 @@
         <v>234</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>4</v>
@@ -3206,9 +3152,9 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>250</v>
       </c>
@@ -3230,9 +3176,9 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+    <row r="25" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>250</v>
       </c>
@@ -3256,9 +3202,9 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+    <row r="26" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
         <v>250</v>
       </c>
@@ -3269,7 +3215,7 @@
         <v>234</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>8</v>
@@ -3280,9 +3226,9 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
+    <row r="27" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="5" t="s">
         <v>250</v>
       </c>
@@ -3304,9 +3250,9 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5" t="s">
         <v>250</v>
       </c>
@@ -3328,14 +3274,14 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+    <row r="29" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>234</v>
@@ -3352,9 +3298,9 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="5" t="s">
         <v>224</v>
       </c>
@@ -3365,7 +3311,7 @@
         <v>224</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>22</v>
@@ -3376,18 +3322,18 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>224</v>
@@ -3402,24 +3348,24 @@
         <v>13</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+    <row r="32" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>4</v>
@@ -3432,14 +3378,14 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>234</v>
@@ -3456,20 +3402,20 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+    <row r="34" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>9</v>
@@ -3482,14 +3428,14 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>234</v>
@@ -3506,9 +3452,9 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+    <row r="36" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -3519,7 +3465,7 @@
         <v>224</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>7</v>
@@ -3532,9 +3478,9 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="5" t="s">
         <v>1</v>
       </c>
@@ -3556,9 +3502,9 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+    <row r="38" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5" t="s">
         <v>1</v>
       </c>
@@ -3569,7 +3515,7 @@
         <v>224</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>72</v>
@@ -3582,9 +3528,9 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3595,7 +3541,7 @@
         <v>224</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>73</v>
@@ -3606,9 +3552,9 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+    <row r="40" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="5" t="s">
         <v>250</v>
       </c>
@@ -3632,9 +3578,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
+    <row r="41" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
         <v>250</v>
       </c>
@@ -3658,9 +3604,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+    <row r="42" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="5" t="s">
         <v>250</v>
       </c>
@@ -3684,14 +3630,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+    <row r="43" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>234</v>
@@ -3710,14 +3656,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+    <row r="44" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>234</v>
@@ -3736,9 +3682,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="5" t="s">
         <v>224</v>
       </c>
@@ -3749,7 +3695,7 @@
         <v>224</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>22</v>
@@ -3760,18 +3706,18 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A46" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>224</v>
@@ -3786,13 +3732,13 @@
         <v>13</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+    <row r="47" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="5" t="s">
         <v>250</v>
       </c>
@@ -3803,7 +3749,7 @@
         <v>234</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>4</v>
@@ -3816,9 +3762,9 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="5" t="s">
         <v>250</v>
       </c>
@@ -3840,9 +3786,9 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="5" t="s">
         <v>1</v>
       </c>
@@ -3853,7 +3799,7 @@
         <v>224</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>7</v>
@@ -3864,9 +3810,9 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="5" t="s">
         <v>1</v>
       </c>
@@ -3888,9 +3834,9 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
+    <row r="51" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="5" t="s">
         <v>250</v>
       </c>
@@ -3912,14 +3858,14 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
+    <row r="52" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>234</v>
@@ -3938,14 +3884,14 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+    <row r="53" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>234</v>
@@ -3964,14 +3910,14 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
+    <row r="54" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>234</v>
@@ -3990,14 +3936,14 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
+    <row r="55" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>234</v>
@@ -4016,9 +3962,9 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="5" t="s">
         <v>250</v>
       </c>
@@ -4040,9 +3986,9 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
+    <row r="57" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="5" t="s">
         <v>250</v>
       </c>
@@ -4066,9 +4012,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="5" t="s">
         <v>224</v>
       </c>
@@ -4079,7 +4025,7 @@
         <v>224</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>22</v>
@@ -4090,18 +4036,18 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+    <row r="59" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A59" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>224</v>
@@ -4116,13 +4062,13 @@
         <v>13</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="5" t="s">
         <v>1</v>
       </c>
@@ -4144,9 +4090,9 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="5" t="s">
         <v>1</v>
       </c>
@@ -4168,9 +4114,9 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="5" t="s">
         <v>1</v>
       </c>
@@ -4192,9 +4138,9 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="5" t="s">
         <v>1</v>
       </c>
@@ -4216,9 +4162,9 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="5" t="s">
         <v>1</v>
       </c>
@@ -4242,9 +4188,9 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="5" t="s">
         <v>1</v>
       </c>
@@ -4268,9 +4214,9 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="5" t="s">
         <v>1</v>
       </c>
@@ -4292,9 +4238,9 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="5" t="s">
         <v>1</v>
       </c>
@@ -4316,9 +4262,9 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="5" t="s">
         <v>1</v>
       </c>
@@ -4340,9 +4286,9 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4364,9 +4310,9 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="5" t="s">
         <v>250</v>
       </c>
@@ -4388,9 +4334,9 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="5" t="s">
         <v>1</v>
       </c>
@@ -4412,9 +4358,9 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="5" t="s">
         <v>1</v>
       </c>
@@ -4436,9 +4382,9 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="5" t="s">
         <v>1</v>
       </c>
@@ -4460,9 +4406,9 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
+    <row r="74" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="5" t="s">
         <v>1</v>
       </c>
@@ -4484,9 +4430,9 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="5" t="s">
         <v>250</v>
       </c>
@@ -4508,9 +4454,9 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="5" t="s">
         <v>250</v>
       </c>
@@ -4532,9 +4478,9 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+    <row r="77" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="5" t="s">
         <v>1</v>
       </c>
@@ -4556,9 +4502,9 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+    <row r="78" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="5" t="s">
         <v>1</v>
       </c>
@@ -4580,9 +4526,9 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="5" t="s">
         <v>1</v>
       </c>
@@ -4604,9 +4550,9 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4628,9 +4574,9 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
+    <row r="81" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="5" t="s">
         <v>250</v>
       </c>
@@ -4650,13 +4596,13 @@
         <v>15</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="5" t="s">
         <v>250</v>
       </c>
@@ -4678,9 +4624,9 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
+    <row r="83" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="5" t="s">
         <v>250</v>
       </c>
@@ -4701,12 +4647,12 @@
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="5" t="s">
         <v>250</v>
       </c>
@@ -4728,9 +4674,9 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
+    <row r="85" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="5" t="s">
         <v>1</v>
       </c>
@@ -4741,22 +4687,22 @@
         <v>224</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+    <row r="86" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="5" t="s">
         <v>1</v>
       </c>
@@ -4767,22 +4713,22 @@
         <v>224</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
+    <row r="87" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="5" t="s">
         <v>1</v>
       </c>
@@ -4793,22 +4739,22 @@
         <v>224</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
+    <row r="88" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="5" t="s">
         <v>1</v>
       </c>
@@ -4830,9 +4776,9 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
+    <row r="89" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="5" t="s">
         <v>1</v>
       </c>
@@ -4856,9 +4802,9 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+    <row r="90" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="5" t="s">
         <v>1</v>
       </c>
@@ -4882,9 +4828,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+    <row r="91" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4906,14 +4852,14 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
+    <row r="92" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>234</v>
@@ -4930,9 +4876,9 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
+    <row r="93" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="5" t="s">
         <v>1</v>
       </c>
@@ -4954,14 +4900,14 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
+    <row r="94" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>224</v>
@@ -4980,14 +4926,14 @@
       </c>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
+    <row r="95" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>224</v>
@@ -5006,14 +4952,14 @@
       </c>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
+    <row r="96" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>234</v>
@@ -5034,14 +4980,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
+    <row r="97" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>234</v>
@@ -5062,14 +5008,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
+    <row r="98" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>234</v>
@@ -5086,14 +5032,14 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
+    <row r="99" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>234</v>
@@ -5110,9 +5056,9 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="5" t="s">
         <v>224</v>
       </c>
@@ -5123,7 +5069,7 @@
         <v>224</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>22</v>
@@ -5134,18 +5080,18 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
+    <row r="101" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A101" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>224</v>
@@ -5160,13 +5106,13 @@
         <v>13</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
+    <row r="102" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="5" t="s">
         <v>250</v>
       </c>
@@ -5177,7 +5123,7 @@
         <v>234</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>4</v>
@@ -5190,9 +5136,9 @@
       </c>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="5" t="s">
         <v>250</v>
       </c>
@@ -5214,9 +5160,9 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="38"/>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="5" t="s">
         <v>250</v>
       </c>
@@ -5238,9 +5184,9 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="5" t="s">
         <v>1</v>
       </c>
@@ -5262,9 +5208,9 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
+    <row r="106" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="5" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5221,7 @@
         <v>224</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>9</v>
@@ -5288,9 +5234,9 @@
       </c>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="5" t="s">
         <v>1</v>
       </c>
@@ -5312,9 +5258,9 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
+    <row r="108" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="5" t="s">
         <v>250</v>
       </c>
@@ -5325,7 +5271,7 @@
         <v>234</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>11</v>
@@ -5338,9 +5284,9 @@
       </c>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
+    <row r="109" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="5" t="s">
         <v>250</v>
       </c>
@@ -5362,9 +5308,9 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="5" t="s">
         <v>1</v>
       </c>
@@ -5386,9 +5332,9 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
+    <row r="111" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="5" t="s">
         <v>1</v>
       </c>
@@ -5399,7 +5345,7 @@
         <v>224</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>35</v>
@@ -5409,38 +5355,38 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D112" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="32" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="E112" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="F112" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="G112" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H112" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
+    </row>
+    <row r="113" spans="1:10" s="33" customFormat="1" ht="59" x14ac:dyDescent="0.75">
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -5451,7 +5397,7 @@
         <v>224</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>72</v>
@@ -5460,15 +5406,15 @@
         <v>19</v>
       </c>
       <c r="I113" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="J113" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="J113" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="38"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A114" s="39"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="5" t="s">
         <v>224</v>
       </c>
@@ -5479,7 +5425,7 @@
         <v>224</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>22</v>
@@ -5490,18 +5436,18 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="s">
+    <row r="115" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A115" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>224</v>
@@ -5516,13 +5462,13 @@
         <v>13</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A116" s="39"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="5" t="s">
         <v>250</v>
       </c>
@@ -5544,9 +5490,9 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="5" t="s">
         <v>250</v>
       </c>
@@ -5568,9 +5514,9 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="5" t="s">
         <v>250</v>
       </c>
@@ -5592,9 +5538,9 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="5" t="s">
         <v>1</v>
       </c>
@@ -5616,9 +5562,9 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="5" t="s">
         <v>1</v>
       </c>
@@ -5640,14 +5586,14 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>234</v>
@@ -5664,14 +5610,14 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>234</v>
@@ -5688,14 +5634,14 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>234</v>
@@ -5712,14 +5658,14 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="38"/>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>234</v>
@@ -5736,9 +5682,9 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
-      <c r="B125" s="38"/>
+    <row r="125" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="5" t="s">
         <v>250</v>
       </c>
@@ -5760,9 +5706,9 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
-      <c r="B126" s="38"/>
+    <row r="126" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="5" t="s">
         <v>250</v>
       </c>
@@ -5784,9 +5730,9 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
+    <row r="127" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="5" t="s">
         <v>250</v>
       </c>
@@ -5808,14 +5754,14 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>234</v>
@@ -5832,14 +5778,14 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>234</v>
@@ -5856,14 +5802,14 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
-      <c r="B130" s="38"/>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>234</v>
@@ -5880,14 +5826,14 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
-      <c r="B131" s="38"/>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>234</v>
@@ -5904,14 +5850,14 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
-      <c r="B132" s="38"/>
+    <row r="132" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>234</v>
@@ -5928,101 +5874,99 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="F133" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="G133" s="29" t="s">
+    <row r="133" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="G133" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H133" s="29" t="s">
+      <c r="H133" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I133" s="29"/>
-      <c r="J133" s="18"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="38"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="19"/>
+    </row>
+    <row r="134" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="G134" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-    </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J135" s="5"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>14</v>
@@ -6030,49 +5974,53 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="38"/>
+    <row r="137" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A137" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C137" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D137" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J137" s="5"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="38"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E138" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>14</v>
@@ -6080,14 +6028,14 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
+    <row r="139" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>234</v>
@@ -6096,7 +6044,7 @@
         <v>352</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>15</v>
@@ -6106,231 +6054,227 @@
       </c>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
-      <c r="B140" s="38"/>
+    <row r="140" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F140" s="5" t="s">
+      <c r="D142" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H142" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="I142" s="5"/>
+      <c r="J142" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
-      <c r="B141" s="38"/>
-      <c r="C141" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D141" s="5" t="s">
+    <row r="143" spans="1:10" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F141" s="5" t="s">
+      <c r="E143" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="G143" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
-      <c r="B142" s="38"/>
-      <c r="C142" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
-      <c r="B144" s="38"/>
-      <c r="C144" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="G145" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="32.15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
-      <c r="B146" s="38"/>
-      <c r="C146" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="G146" s="5" t="s">
+      <c r="G147" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-    </row>
-    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J147" s="5"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-      <c r="B148" s="38"/>
-      <c r="C148" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>14</v>
@@ -6338,33 +6282,39 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="38"/>
+    <row r="149" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A149" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="C149" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
-      <c r="B150" s="38"/>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="5" t="s">
         <v>1</v>
       </c>
@@ -6375,10 +6325,10 @@
         <v>224</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>14</v>
@@ -6386,37 +6336,35 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="38"/>
-      <c r="B151" s="38"/>
-      <c r="C151" s="29" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E151" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="F151" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="G151" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I151" s="29"/>
-      <c r="J151" s="29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
-      <c r="B152" s="38"/>
+      <c r="D151" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="5" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>224</v>
@@ -6425,10 +6373,10 @@
         <v>224</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>365</v>
+        <v>146</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>14</v>
@@ -6436,41 +6384,37 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B153" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J153" s="5"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
-      <c r="B154" s="38"/>
+    <row r="153" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="5" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>224</v>
@@ -6479,10 +6423,10 @@
         <v>224</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>14</v>
@@ -6490,33 +6434,39 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
-      <c r="B155" s="38"/>
+    <row r="155" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A155" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="C155" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I155" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
-      <c r="B156" s="38"/>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A156" s="39"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="5" t="s">
         <v>1</v>
       </c>
@@ -6527,24 +6477,22 @@
         <v>224</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>151</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
-      <c r="B157" s="38"/>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A157" s="39"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="5" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>224</v>
@@ -6553,98 +6501,100 @@
         <v>224</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>365</v>
+        <v>149</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="38" t="s">
-        <v>72</v>
-      </c>
+    <row r="158" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A158" s="39"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="5" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I158" s="6" t="s">
-        <v>333</v>
+      <c r="I158" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
-      <c r="B159" s="38"/>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A159" s="39"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>153</v>
+        <v>366</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
-      <c r="B160" s="38"/>
+    <row r="160" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A160" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="C160" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I160" s="5"/>
+      <c r="I160" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="38"/>
-      <c r="B161" s="38"/>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="5" t="s">
         <v>250</v>
       </c>
@@ -6655,10 +6605,10 @@
         <v>234</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>13</v>
@@ -6666,23 +6616,23 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="38"/>
-      <c r="B162" s="38"/>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>13</v>
@@ -6690,23 +6640,23 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="38"/>
-      <c r="B163" s="38"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>13</v>
@@ -6714,23 +6664,23 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
-      <c r="B164" s="38"/>
+    <row r="164" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>13</v>
@@ -6738,9 +6688,9 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="38"/>
-      <c r="B165" s="38"/>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="5" t="s">
         <v>250</v>
       </c>
@@ -6751,10 +6701,10 @@
         <v>234</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>13</v>
@@ -6762,9 +6712,9 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="38"/>
-      <c r="B166" s="38"/>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="5" t="s">
         <v>250</v>
       </c>
@@ -6775,10 +6725,10 @@
         <v>234</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>13</v>
@@ -6786,9 +6736,9 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="38"/>
-      <c r="B167" s="38"/>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="5" t="s">
         <v>250</v>
       </c>
@@ -6799,10 +6749,10 @@
         <v>234</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>13</v>
@@ -6810,9 +6760,9 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="38"/>
-      <c r="B168" s="38"/>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="5" t="s">
         <v>250</v>
       </c>
@@ -6823,10 +6773,10 @@
         <v>234</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>13</v>
@@ -6834,9 +6784,9 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="38"/>
-      <c r="B169" s="38"/>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="5" t="s">
         <v>250</v>
       </c>
@@ -6847,10 +6797,10 @@
         <v>234</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>13</v>
@@ -6858,23 +6808,23 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="38"/>
-      <c r="B170" s="38"/>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>13</v>
@@ -6882,23 +6832,23 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="38"/>
-      <c r="B171" s="38"/>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>13</v>
@@ -6906,23 +6856,23 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="38"/>
-      <c r="B172" s="38"/>
+    <row r="172" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>13</v>
@@ -6930,23 +6880,23 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="38"/>
-      <c r="B173" s="38"/>
+    <row r="173" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>13</v>
@@ -6954,23 +6904,23 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="38"/>
-      <c r="B174" s="38"/>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>13</v>
@@ -6978,23 +6928,23 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="38"/>
-      <c r="B175" s="38"/>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>13</v>
@@ -7002,23 +6952,23 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="38"/>
-      <c r="B176" s="38"/>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>13</v>
@@ -7026,23 +6976,23 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
-      <c r="B177" s="38"/>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>13</v>
@@ -7050,23 +7000,23 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="38"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>13</v>
@@ -7074,23 +7024,23 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
-      <c r="B179" s="38"/>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>13</v>
@@ -7098,23 +7048,23 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="38"/>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A180" s="39"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>13</v>
@@ -7122,53 +7072,47 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B181" s="38" t="s">
-        <v>73</v>
-      </c>
+    <row r="181" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I181" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="38"/>
-      <c r="B182" s="38"/>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>246</v>
+        <v>224</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>13</v>
@@ -7176,47 +7120,53 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="38"/>
-      <c r="B183" s="38"/>
+    <row r="183" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A183" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B183" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="C183" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I183" s="5"/>
+      <c r="I183" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="38"/>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="7" t="s">
         <v>246</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>13</v>
@@ -7224,9 +7174,9 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="38"/>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="5" t="s">
         <v>250</v>
       </c>
@@ -7237,10 +7187,10 @@
         <v>234</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>13</v>
@@ -7248,23 +7198,23 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="38"/>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>13</v>
@@ -7272,545 +7222,539 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="38"/>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="5" t="s">
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="38"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F188" s="5" t="s">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="E190" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I188" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="38"/>
-      <c r="B189" s="38"/>
-      <c r="C189" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="38"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5" t="s">
+      <c r="I190" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="38"/>
-      <c r="B191" s="38"/>
-      <c r="C191" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E191" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I191" s="5"/>
       <c r="J191" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="38"/>
-      <c r="B192" s="38"/>
-      <c r="C192" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E192" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="38"/>
-      <c r="B193" s="38"/>
-      <c r="C193" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="E193" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="38"/>
-      <c r="B194" s="38"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>224</v>
+        <v>415</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="G194" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="29" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H196" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="38" t="s">
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A197" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B197" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F195" s="5" t="s">
+      <c r="C197" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I195" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A196" s="38"/>
-      <c r="B196" s="38"/>
-      <c r="C196" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="38"/>
-      <c r="B197" s="38"/>
-      <c r="C197" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I197" s="5"/>
+      <c r="I197" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="38" t="s">
+    <row r="198" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A200" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B200" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F198" s="5" t="s">
+      <c r="C200" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F200" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G198" s="5" t="s">
+      <c r="G200" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I198" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="38"/>
-      <c r="C199" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I199" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A200" s="38"/>
-      <c r="B200" s="38"/>
-      <c r="C200" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I200" s="5" t="s">
-        <v>360</v>
+      <c r="I200" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="38"/>
+    <row r="201" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H201" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I201" s="5"/>
+      <c r="I201" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="38"/>
-      <c r="B202" s="38"/>
+    <row r="202" spans="1:10" ht="59" x14ac:dyDescent="0.75">
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I202" s="5"/>
+      <c r="I202" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A203" s="38"/>
-      <c r="B203" s="38"/>
+    <row r="203" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I203" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A204" s="38"/>
-      <c r="B204" s="38"/>
+    <row r="204" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I204" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="38"/>
-      <c r="B205" s="38"/>
+    <row r="205" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I205" s="5"/>
+      <c r="I205" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B206" s="38" t="s">
-        <v>76</v>
-      </c>
+    <row r="206" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I206" s="6" t="s">
-        <v>333</v>
+      <c r="I206" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="38"/>
-      <c r="B207" s="38"/>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>192</v>
+        <v>366</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>47</v>
@@ -7818,73 +7762,77 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="38"/>
-      <c r="B208" s="38"/>
+    <row r="208" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A208" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B208" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="C208" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I208" s="5"/>
+      <c r="I208" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="38"/>
-      <c r="B209" s="38"/>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D209" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E209" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="38"/>
-      <c r="B210" s="38"/>
-      <c r="C210" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="E210" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>47</v>
@@ -7892,271 +7840,271 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
-    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B211" s="38" t="s">
-        <v>77</v>
-      </c>
+    <row r="211" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I211" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J211" s="5"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="38"/>
-      <c r="B212" s="38"/>
+        <v>19</v>
+      </c>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I212" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J212" s="7"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="38"/>
-      <c r="B213" s="38"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A213" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B213" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="C213" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I213" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J213" s="7"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="38"/>
-      <c r="B214" s="38"/>
+      <c r="I213" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J214" s="7"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="38"/>
-      <c r="B215" s="38"/>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J215" s="7"/>
     </row>
-    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="38"/>
-      <c r="B216" s="38"/>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="38"/>
-      <c r="B217" s="38"/>
+      <c r="I216" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J216" s="7"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5"/>
-    </row>
-    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B218" s="38" t="s">
-        <v>78</v>
-      </c>
+      <c r="I217" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J217" s="7"/>
+    </row>
+    <row r="218" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I218" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
-    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="38"/>
-      <c r="B219" s="38"/>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I219" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="I219" s="5"/>
       <c r="J219" s="5"/>
     </row>
-    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="38"/>
-      <c r="B220" s="38"/>
+    <row r="220" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A220" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B220" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="C220" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I220" s="5"/>
+      <c r="I220" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="J220" s="5"/>
     </row>
-    <row r="221" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="38"/>
-      <c r="B221" s="38"/>
+    <row r="221" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="5" t="s">
         <v>250</v>
       </c>
@@ -8170,19 +8118,19 @@
         <v>354</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="J221" s="5"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="38"/>
-      <c r="B222" s="38"/>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A222" s="39"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="5" t="s">
         <v>250</v>
       </c>
@@ -8193,10 +8141,10 @@
         <v>234</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>47</v>
@@ -8204,47 +8152,49 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="38"/>
-      <c r="B223" s="38"/>
+    <row r="223" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A223" s="39"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I223" s="5"/>
+      <c r="I223" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="38"/>
-      <c r="B224" s="38"/>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>234</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>47</v>
@@ -8252,23 +8202,23 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="38"/>
-      <c r="B225" s="38"/>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>365</v>
+        <v>205</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>47</v>
@@ -8276,93 +8226,87 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="B226" s="39" t="s">
-        <v>79</v>
-      </c>
+    <row r="226" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A226" s="39"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I226" s="6" t="s">
-        <v>333</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A227" s="39"/>
       <c r="B227" s="39"/>
       <c r="C227" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I227" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J227" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A228" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="C228" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I228" s="8"/>
-      <c r="J228" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
-      <c r="B229" s="39"/>
+      <c r="I228" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A229" s="40"/>
+      <c r="B229" s="40"/>
       <c r="C229" s="5" t="s">
         <v>250</v>
       </c>
@@ -8376,7 +8320,7 @@
         <v>356</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>19</v>
@@ -8385,12 +8329,12 @@
         <v>254</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
-      <c r="B230" s="39"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A230" s="40"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="5" t="s">
         <v>250</v>
       </c>
@@ -8401,36 +8345,36 @@
         <v>264</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I230" s="6"/>
+      <c r="I230" s="8"/>
       <c r="J230" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
-      <c r="B231" s="39"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A231" s="40"/>
+      <c r="B231" s="40"/>
       <c r="C231" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>19</v>
@@ -8438,39 +8382,39 @@
       <c r="I231" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
-      <c r="B232" s="39"/>
+      <c r="J231" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A232" s="40"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I232" s="6"/>
-      <c r="J232" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
-      <c r="B233" s="39"/>
+      <c r="J232" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A233" s="40"/>
+      <c r="B233" s="40"/>
       <c r="C233" s="5" t="s">
         <v>1</v>
       </c>
@@ -8484,7 +8428,7 @@
         <v>358</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>19</v>
@@ -8493,12 +8437,12 @@
         <v>254</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
       <c r="C234" s="5" t="s">
         <v>1</v>
       </c>
@@ -8509,24 +8453,24 @@
         <v>224</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A235" s="40"/>
+      <c r="B235" s="40"/>
       <c r="C235" s="5" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>224</v>
@@ -8535,659 +8479,713 @@
         <v>224</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-    </row>
-    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="B236" s="35" t="s">
-        <v>80</v>
-      </c>
+      <c r="I235" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J235" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
       <c r="C236" s="5" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I236" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J236" s="18"/>
-    </row>
-    <row r="237" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="36"/>
-      <c r="B237" s="36"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A237" s="40"/>
+      <c r="B237" s="40"/>
       <c r="C237" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I237" s="6"/>
-      <c r="J237" s="18"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
-      <c r="B238" s="37"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+    </row>
+    <row r="238" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A238" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B238" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="C238" s="5" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>369</v>
+        <v>251</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I238" s="6"/>
-      <c r="J238" s="18"/>
-    </row>
-    <row r="239" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="41" t="s">
+      <c r="I238" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J238" s="19"/>
+    </row>
+    <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A239" s="37"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" s="6"/>
+      <c r="J239" s="19"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A240" s="38"/>
+      <c r="B240" s="38"/>
+      <c r="C240" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="6"/>
+      <c r="J240" s="19"/>
+    </row>
+    <row r="241" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A241" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B241" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D241" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E241" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G241" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H241" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="J241" s="26"/>
+    </row>
+    <row r="242" spans="1:10" s="24" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A242" s="43"/>
+      <c r="B242" s="45"/>
+      <c r="C242" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D242" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="E242" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G242" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H242" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="J242" s="26"/>
+    </row>
+    <row r="243" spans="1:10" s="24" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A243" s="43"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E243" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F243" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="G243" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="J243" s="26"/>
+    </row>
+    <row r="244" spans="1:10" s="24" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A244" s="43"/>
+      <c r="B244" s="45"/>
+      <c r="C244" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E244" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G244" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H244" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="J244" s="26"/>
+    </row>
+    <row r="245" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A245" s="43"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D245" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B239" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C239" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D239" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E239" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F239" s="24" t="s">
+      <c r="E245" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F245" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="G245" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I245" s="26"/>
+      <c r="J245" s="26"/>
+    </row>
+    <row r="246" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A246" s="43"/>
+      <c r="B246" s="45"/>
+      <c r="C246" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D246" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E246" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F246" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G246" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="26"/>
+      <c r="J246" s="26"/>
+    </row>
+    <row r="247" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A247" s="43"/>
+      <c r="B247" s="45"/>
+      <c r="C247" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E247" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F247" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="G247" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H247" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I247" s="26"/>
+      <c r="J247" s="26"/>
+    </row>
+    <row r="248" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A248" s="43"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D248" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E248" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F248" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="G248" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248" s="26"/>
+      <c r="J248" s="26"/>
+    </row>
+    <row r="249" spans="1:10" s="24" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A249" s="43"/>
+      <c r="B249" s="45"/>
+      <c r="C249" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D249" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E249" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F249" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="G249" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H249" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="J249" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A250" s="43"/>
+      <c r="B250" s="45"/>
+      <c r="C250" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D250" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E250" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F250" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G250" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H250" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I250" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="J250" s="26"/>
+    </row>
+    <row r="251" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A251" s="43"/>
+      <c r="B251" s="45"/>
+      <c r="C251" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D251" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E251" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F251" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="G251" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H251" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I251" s="25"/>
+      <c r="J251" s="26"/>
+    </row>
+    <row r="252" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A252" s="43"/>
+      <c r="B252" s="45"/>
+      <c r="C252" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D252" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E252" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G252" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H252" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I252" s="25"/>
+      <c r="J252" s="26"/>
+    </row>
+    <row r="253" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A253" s="43"/>
+      <c r="B253" s="45"/>
+      <c r="C253" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D253" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E253" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F253" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="G253" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H253" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" s="25"/>
+      <c r="J253" s="26"/>
+    </row>
+    <row r="254" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A254" s="43"/>
+      <c r="B254" s="45"/>
+      <c r="C254" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D254" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E254" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F254" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G254" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H254" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I254" s="25"/>
+      <c r="J254" s="26"/>
+    </row>
+    <row r="255" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A255" s="43"/>
+      <c r="B255" s="45"/>
+      <c r="C255" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E255" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F255" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G255" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H255" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I255" s="25"/>
+      <c r="J255" s="26"/>
+    </row>
+    <row r="256" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A256" s="43"/>
+      <c r="B256" s="45"/>
+      <c r="C256" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E256" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F256" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="G256" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H256" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I256" s="25"/>
+      <c r="J256" s="26"/>
+    </row>
+    <row r="257" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A257" s="43"/>
+      <c r="B257" s="45"/>
+      <c r="C257" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E257" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F257" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G257" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H257" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I257" s="25"/>
+      <c r="J257" s="26"/>
+    </row>
+    <row r="258" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A258" s="43"/>
+      <c r="B258" s="45"/>
+      <c r="C258" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D258" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="E258" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F258" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G258" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H258" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I258" s="26"/>
+      <c r="J258" s="26"/>
+    </row>
+    <row r="259" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A259" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="B259" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F259" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G239" s="24" t="s">
+      <c r="G259" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H239" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I239" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="J239" s="25"/>
-    </row>
-    <row r="240" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="42"/>
-      <c r="B240" s="44"/>
-      <c r="C240" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D240" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="E240" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F240" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="G240" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H240" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I240" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="J240" s="25"/>
-    </row>
-    <row r="241" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A241" s="42"/>
-      <c r="B241" s="44"/>
-      <c r="C241" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D241" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="E241" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F241" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="G241" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H241" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I241" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="J241" s="25"/>
-    </row>
-    <row r="242" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="42"/>
-      <c r="B242" s="44"/>
-      <c r="C242" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D242" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="E242" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F242" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="G242" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H242" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I242" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="J242" s="25"/>
-    </row>
-    <row r="243" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="42"/>
-      <c r="B243" s="44"/>
-      <c r="C243" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D243" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="E243" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F243" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="G243" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H243" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I243" s="25"/>
-      <c r="J243" s="25"/>
-    </row>
-    <row r="244" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="42"/>
-      <c r="B244" s="44"/>
-      <c r="C244" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D244" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="E244" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F244" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="G244" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H244" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I244" s="25"/>
-      <c r="J244" s="25"/>
-    </row>
-    <row r="245" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
-      <c r="B245" s="44"/>
-      <c r="C245" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D245" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="E245" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F245" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="G245" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H245" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I245" s="25"/>
-      <c r="J245" s="25"/>
-    </row>
-    <row r="246" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="42"/>
-      <c r="B246" s="44"/>
-      <c r="C246" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D246" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E246" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F246" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="G246" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H246" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I246" s="25"/>
-      <c r="J246" s="25"/>
-    </row>
-    <row r="247" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="42"/>
-      <c r="B247" s="44"/>
-      <c r="C247" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D247" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E247" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F247" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="G247" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H247" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I247" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="J247" s="25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="42"/>
-      <c r="B248" s="44"/>
-      <c r="C248" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D248" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="E248" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F248" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="G248" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H248" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I248" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="J248" s="25"/>
-    </row>
-    <row r="249" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="42"/>
-      <c r="B249" s="44"/>
-      <c r="C249" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D249" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E249" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F249" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="G249" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H249" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I249" s="24"/>
-      <c r="J249" s="25"/>
-    </row>
-    <row r="250" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="42"/>
-      <c r="B250" s="44"/>
-      <c r="C250" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D250" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E250" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F250" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="G250" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H250" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I250" s="24"/>
-      <c r="J250" s="25"/>
-    </row>
-    <row r="251" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="42"/>
-      <c r="B251" s="44"/>
-      <c r="C251" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D251" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E251" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F251" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="G251" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H251" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I251" s="24"/>
-      <c r="J251" s="25"/>
-    </row>
-    <row r="252" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="42"/>
-      <c r="B252" s="44"/>
-      <c r="C252" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D252" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E252" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="F252" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="G252" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H252" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I252" s="24"/>
-      <c r="J252" s="25"/>
-    </row>
-    <row r="253" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="42"/>
-      <c r="B253" s="44"/>
-      <c r="C253" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D253" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E253" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F253" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="G253" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H253" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I253" s="24"/>
-      <c r="J253" s="25"/>
-    </row>
-    <row r="254" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="42"/>
-      <c r="B254" s="44"/>
-      <c r="C254" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D254" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E254" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F254" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="G254" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H254" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I254" s="24"/>
-      <c r="J254" s="25"/>
-    </row>
-    <row r="255" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="42"/>
-      <c r="B255" s="44"/>
-      <c r="C255" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D255" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E255" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F255" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="G255" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H255" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I255" s="24"/>
-      <c r="J255" s="25"/>
-    </row>
-    <row r="256" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="42"/>
-      <c r="B256" s="44"/>
-      <c r="C256" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D256" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E256" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="F256" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="G256" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H256" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I256" s="25"/>
-      <c r="J256" s="25"/>
-    </row>
-    <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="B257" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G257" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H257" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I257" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J257" s="5"/>
-    </row>
-    <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-      <c r="B258" s="36"/>
-      <c r="C258" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H258" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I258" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J258" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
-      <c r="B259" s="37"/>
-      <c r="C259" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I259" s="6"/>
-      <c r="J259" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="5" t="s">
+      <c r="I259" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J259" s="5"/>
+    </row>
+    <row r="260" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A260" s="37"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A261" s="38"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I261" s="6"/>
+      <c r="J261" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A262" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B262" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C260" s="45" t="s">
+      <c r="C262" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D260" s="45"/>
-      <c r="E260" s="45"/>
-      <c r="F260" s="45"/>
-      <c r="G260" s="5" t="s">
+      <c r="D262" s="46"/>
+      <c r="E262" s="46"/>
+      <c r="F262" s="46"/>
+      <c r="G262" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H260" s="5" t="s">
+      <c r="H262" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J260" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:J262" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="47">
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="A239:A256"/>
-    <mergeCell ref="B239:B256"/>
-    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A241:A258"/>
+    <mergeCell ref="B241:B258"/>
+    <mergeCell ref="C262:F262"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="B3:B12"/>
@@ -9204,37 +9202,34 @@
     <mergeCell ref="B59:B100"/>
     <mergeCell ref="A101:A114"/>
     <mergeCell ref="B101:B114"/>
-    <mergeCell ref="A115:A134"/>
-    <mergeCell ref="B115:B134"/>
-    <mergeCell ref="A135:A146"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="A158:A180"/>
-    <mergeCell ref="B158:B180"/>
-    <mergeCell ref="A181:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="B181:B194"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="A218:A225"/>
-    <mergeCell ref="B218:B225"/>
-    <mergeCell ref="A198:A205"/>
-    <mergeCell ref="B198:B205"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="A211:A217"/>
-    <mergeCell ref="B211:B217"/>
-    <mergeCell ref="A226:A235"/>
-    <mergeCell ref="B226:B235"/>
+    <mergeCell ref="A115:A136"/>
+    <mergeCell ref="B115:B136"/>
+    <mergeCell ref="A137:A148"/>
+    <mergeCell ref="B137:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="A160:A182"/>
+    <mergeCell ref="B160:B182"/>
+    <mergeCell ref="A183:A196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B183:B196"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="A220:A227"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="A200:A207"/>
+    <mergeCell ref="B200:B207"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="A228:A237"/>
+    <mergeCell ref="B228:B237"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;L© 2021 Z-Wave Alliance, Inc., All Rights Reserved This document may only be copied and distributed internally. </oddFooter>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Registries/Notification Command Class, list of assigned Notifications.xlsx
+++ b/Registries/Notification Command Class, list of assigned Notifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niobriot/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B07DCA-9C7F-4CA5-AF4D-4959F1C57A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D17A059-4492-8F42-99BE-29BD0517C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="345" windowWidth="21600" windowHeight="9750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34020" yWindow="880" windowWidth="29180" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontpage" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="473">
   <si>
     <t>Notification Type</t>
   </si>
@@ -605,19 +605,10 @@
     <t>Valve operation</t>
   </si>
   <si>
-    <t>Master valve operation</t>
-  </si>
-  <si>
     <t>Valve short circuit</t>
   </si>
   <si>
-    <t>Master valve short circuit</t>
-  </si>
-  <si>
     <t>Valve current alarm</t>
-  </si>
-  <si>
-    <t>Master valve current alarm</t>
   </si>
   <si>
     <t>Weather Alarm</t>
@@ -1028,19 +1019,10 @@
     <t>Valve operation status</t>
   </si>
   <si>
-    <t>Master valve operation status</t>
-  </si>
-  <si>
     <t>Valve short circuit status</t>
   </si>
   <si>
-    <t>Master valve short circuit status</t>
-  </si>
-  <si>
     <t>Valve current alarm status</t>
-  </si>
-  <si>
-    <t>Master valve current alarm status</t>
   </si>
   <si>
     <t>Rain alarm status</t>
@@ -1541,6 +1523,27 @@
   </si>
   <si>
     <t>This state represents that a source was disconnected from the DC Jack of a device</t>
+  </si>
+  <si>
+    <t>Remove offensive terminology</t>
+  </si>
+  <si>
+    <t>Main valve operation status</t>
+  </si>
+  <si>
+    <t>Main valve short circuit status</t>
+  </si>
+  <si>
+    <t>Main valve current alarm status</t>
+  </si>
+  <si>
+    <t>Main valve current alarm</t>
+  </si>
+  <si>
+    <t>Main valve short circuit</t>
+  </si>
+  <si>
+    <t>Main valve operation</t>
   </si>
 </sst>
 </file>
@@ -1836,6 +1839,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1850,15 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1875,7 +1870,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,41 +2263,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="115.7265625" customWidth="1"/>
+    <col min="1" max="1" width="115.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="277.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" ht="295" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="46.5" customHeight="1" x14ac:dyDescent="0.75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="3" customHeight="1" x14ac:dyDescent="0.75">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
   </sheetData>
@@ -2306,221 +2309,235 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" customWidth="1"/>
-    <col min="4" max="4" width="73.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="59" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" s="3">
         <v>42712</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3">
         <v>42723</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3">
         <v>42755</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" s="22">
         <v>42979</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C7" s="28">
         <v>43164</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="28">
         <v>43282</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C9" s="28">
         <v>43466</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C10" s="28">
         <v>43556</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C11" s="28">
         <v>43647</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C12" s="28">
         <v>43831</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C13" s="28">
         <v>43983</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C14" s="28">
         <v>44105</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="47">
+        <v>459</v>
+      </c>
+      <c r="C15" s="34">
         <v>44504</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" s="34">
+        <v>44790</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>466</v>
       </c>
     </row>
@@ -2540,43 +2557,43 @@
   </sheetPr>
   <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115:A136"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="48" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.1328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="35.7265625" style="1"/>
+    <col min="10" max="10" width="67.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="35.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2584,48 +2601,48 @@
         <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A3" s="40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -2634,24 +2651,24 @@
         <v>13</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
@@ -2660,21 +2677,21 @@
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
@@ -2688,20 +2705,20 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
@@ -2712,17 +2729,17 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>18</v>
@@ -2735,23 +2752,23 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>8</v>
@@ -2761,20 +2778,20 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
@@ -2787,20 +2804,20 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -2813,20 +2830,20 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -2839,23 +2856,23 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>22</v>
@@ -2866,24 +2883,24 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>5</v>
@@ -2892,24 +2909,24 @@
         <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>4</v>
@@ -2918,21 +2935,21 @@
         <v>14</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>24</v>
@@ -2946,17 +2963,17 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>28</v>
@@ -2971,23 +2988,23 @@
         <v>26</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>8</v>
@@ -2997,20 +3014,20 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>27</v>
@@ -3024,17 +3041,17 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>18</v>
@@ -3048,17 +3065,17 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>20</v>
@@ -3072,20 +3089,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>22</v>
@@ -3096,24 +3113,24 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>5</v>
@@ -3122,24 +3139,24 @@
         <v>13</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>4</v>
@@ -3148,21 +3165,21 @@
         <v>14</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>31</v>
@@ -3176,17 +3193,17 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>32</v>
@@ -3202,20 +3219,20 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>8</v>
@@ -3226,17 +3243,17 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>27</v>
@@ -3250,17 +3267,17 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>18</v>
@@ -3274,17 +3291,17 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>20</v>
@@ -3298,20 +3315,20 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>22</v>
@@ -3322,24 +3339,24 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>5</v>
@@ -3348,24 +3365,24 @@
         <v>13</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+    <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>4</v>
@@ -3374,21 +3391,21 @@
         <v>14</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>37</v>
@@ -3402,20 +3419,20 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+    <row r="34" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>9</v>
@@ -3424,21 +3441,21 @@
         <v>14</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>40</v>
@@ -3452,20 +3469,20 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
+    <row r="36" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>7</v>
@@ -3474,21 +3491,21 @@
         <v>14</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>38</v>
@@ -3502,20 +3519,20 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
+    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>72</v>
@@ -3524,24 +3541,24 @@
         <v>19</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>73</v>
@@ -3552,17 +3569,17 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+    <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>39</v>
@@ -3575,20 +3592,20 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>18</v>
@@ -3601,20 +3618,20 @@
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>27</v>
@@ -3627,20 +3644,20 @@
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>21</v>
@@ -3653,20 +3670,20 @@
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>20</v>
@@ -3679,23 +3696,23 @@
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>22</v>
@@ -3706,24 +3723,24 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A46" s="39" t="s">
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>5</v>
@@ -3732,24 +3749,24 @@
         <v>13</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
+    <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>4</v>
@@ -3758,21 +3775,21 @@
         <v>14</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>42</v>
@@ -3786,20 +3803,20 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>7</v>
@@ -3810,17 +3827,17 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>43</v>
@@ -3834,17 +3851,17 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
+    <row r="51" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>44</v>
@@ -3858,17 +3875,17 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
+    <row r="52" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>45</v>
@@ -3880,21 +3897,21 @@
         <v>47</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
+    <row r="53" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>46</v>
@@ -3906,24 +3923,24 @@
         <v>47</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
+    <row r="54" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>12</v>
@@ -3932,24 +3949,24 @@
         <v>19</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
+    <row r="55" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>34</v>
@@ -3958,24 +3975,24 @@
         <v>19</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>35</v>
@@ -3986,20 +4003,20 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
+    <row r="57" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>36</v>
@@ -4009,23 +4026,23 @@
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>22</v>
@@ -4036,24 +4053,24 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A59" s="39" t="s">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>5</v>
@@ -4062,21 +4079,21 @@
         <v>13</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>49</v>
@@ -4090,17 +4107,17 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>50</v>
@@ -4114,17 +4131,17 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>51</v>
@@ -4138,17 +4155,17 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>52</v>
@@ -4162,17 +4179,17 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>53</v>
@@ -4184,21 +4201,21 @@
         <v>14</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>54</v>
@@ -4210,21 +4227,21 @@
         <v>14</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>55</v>
@@ -4238,17 +4255,17 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>56</v>
@@ -4262,17 +4279,17 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
+    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>57</v>
@@ -4286,17 +4303,17 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
+    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>58</v>
@@ -4310,17 +4327,17 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>59</v>
@@ -4334,17 +4351,17 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>60</v>
@@ -4358,17 +4375,17 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>61</v>
@@ -4382,17 +4399,17 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>62</v>
@@ -4406,17 +4423,17 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>63</v>
@@ -4430,17 +4447,17 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>64</v>
@@ -4454,17 +4471,17 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>66</v>
@@ -4478,17 +4495,17 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+    <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>65</v>
@@ -4502,17 +4519,17 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>67</v>
@@ -4526,17 +4543,17 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>68</v>
@@ -4550,17 +4567,17 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+    <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>69</v>
@@ -4574,17 +4591,17 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
+    <row r="81" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>70</v>
@@ -4596,21 +4613,21 @@
         <v>15</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>71</v>
@@ -4624,49 +4641,49 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
+    <row r="83" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>19</v>
@@ -4674,95 +4691,95 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
+    <row r="85" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
+    <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
+    <row r="87" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
+    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>84</v>
@@ -4776,17 +4793,17 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
+    <row r="89" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>94</v>
@@ -4802,17 +4819,17 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
+    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>96</v>
@@ -4828,17 +4845,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
+    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>98</v>
@@ -4852,17 +4869,17 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
+    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>99</v>
@@ -4876,17 +4893,17 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
+    <row r="93" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>100</v>
@@ -4900,17 +4917,17 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
+    <row r="94" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>101</v>
@@ -4926,17 +4943,17 @@
       </c>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
+    <row r="95" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>102</v>
@@ -4952,17 +4969,17 @@
       </c>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
+    <row r="96" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>105</v>
@@ -4977,20 +4994,20 @@
         <v>106</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>108</v>
@@ -5005,20 +5022,20 @@
         <v>106</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>109</v>
@@ -5032,17 +5049,17 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
+    <row r="99" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>111</v>
@@ -5056,20 +5073,20 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
+    <row r="100" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="47"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>22</v>
@@ -5080,24 +5097,24 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A101" s="39" t="s">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>5</v>
@@ -5106,24 +5123,24 @@
         <v>13</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
+    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>4</v>
@@ -5132,21 +5149,21 @@
         <v>14</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
+    <row r="103" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>114</v>
@@ -5160,17 +5177,17 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
+    <row r="104" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>115</v>
@@ -5184,17 +5201,17 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
+    <row r="105" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>116</v>
@@ -5208,20 +5225,20 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
+    <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>9</v>
@@ -5230,21 +5247,21 @@
         <v>14</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
+    <row r="107" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>117</v>
@@ -5258,20 +5275,20 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
+    <row r="108" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>11</v>
@@ -5280,21 +5297,21 @@
         <v>14</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
+    <row r="109" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>118</v>
@@ -5308,17 +5325,17 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
+    <row r="110" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>119</v>
@@ -5332,20 +5349,20 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
+    <row r="111" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>35</v>
@@ -5355,23 +5372,23 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="32" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A112" s="39"/>
-      <c r="B112" s="39"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="32" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G112" s="30" t="s">
         <v>36</v>
@@ -5381,23 +5398,23 @@
       </c>
       <c r="I112" s="30"/>
       <c r="J112" s="30" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="33" customFormat="1" ht="59" x14ac:dyDescent="0.75">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="33" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>72</v>
@@ -5406,26 +5423,26 @@
         <v>19</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A114" s="39"/>
-      <c r="B114" s="39"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>22</v>
@@ -5436,24 +5453,24 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A115" s="39" t="s">
+    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>5</v>
@@ -5462,21 +5479,21 @@
         <v>13</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A116" s="39"/>
-      <c r="B116" s="39"/>
+    <row r="116" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>122</v>
@@ -5490,17 +5507,17 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>123</v>
@@ -5514,17 +5531,17 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
+    <row r="118" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>124</v>
@@ -5538,17 +5555,17 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A119" s="39"/>
-      <c r="B119" s="39"/>
+    <row r="119" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>125</v>
@@ -5562,17 +5579,17 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39"/>
+    <row r="120" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>126</v>
@@ -5586,17 +5603,17 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
+    <row r="121" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>127</v>
@@ -5610,17 +5627,17 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A122" s="39"/>
-      <c r="B122" s="39"/>
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>128</v>
@@ -5634,17 +5651,17 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A123" s="39"/>
-      <c r="B123" s="39"/>
+    <row r="123" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>129</v>
@@ -5658,17 +5675,17 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="47"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>130</v>
@@ -5682,17 +5699,17 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
+    <row r="125" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="47"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>131</v>
@@ -5706,17 +5723,17 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
+    <row r="126" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>132</v>
@@ -5730,20 +5747,20 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
+    <row r="127" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>77</v>
@@ -5754,17 +5771,17 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
+    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>133</v>
@@ -5778,17 +5795,17 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
+    <row r="129" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>134</v>
@@ -5802,17 +5819,17 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
+    <row r="130" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>135</v>
@@ -5826,17 +5843,17 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
+    <row r="131" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>136</v>
@@ -5850,20 +5867,20 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
+    <row r="132" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>76</v>
@@ -5874,20 +5891,20 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
+    <row r="133" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G133" s="30" t="s">
         <v>78</v>
@@ -5898,20 +5915,20 @@
       <c r="I133" s="30"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
+    <row r="134" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>79</v>
@@ -5921,23 +5938,23 @@
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>80</v>
@@ -5947,23 +5964,23 @@
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>22</v>
@@ -5974,24 +5991,24 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A137" s="39" t="s">
+    <row r="137" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>5</v>
@@ -6000,21 +6017,21 @@
         <v>13</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A138" s="39"/>
-      <c r="B138" s="39"/>
+    <row r="138" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>138</v>
@@ -6028,20 +6045,20 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
+    <row r="139" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>7</v>
@@ -6054,17 +6071,17 @@
       </c>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
+    <row r="140" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>139</v>
@@ -6078,20 +6095,20 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
+    <row r="141" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>8</v>
@@ -6104,17 +6121,17 @@
       </c>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
+    <row r="142" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>141</v>
@@ -6127,20 +6144,20 @@
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="103.25" x14ac:dyDescent="0.75">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>115</v>
@@ -6153,20 +6170,20 @@
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>142</v>
@@ -6180,20 +6197,20 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
+    <row r="145" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>34</v>
@@ -6203,23 +6220,23 @@
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="32.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A146" s="39"/>
-      <c r="B146" s="39"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>35</v>
@@ -6229,23 +6246,23 @@
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A147" s="39"/>
-      <c r="B147" s="39"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>36</v>
@@ -6255,23 +6272,23 @@
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>22</v>
@@ -6282,24 +6299,24 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A149" s="39" t="s">
+    <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>5</v>
@@ -6308,21 +6325,21 @@
         <v>13</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
+    <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>144</v>
@@ -6336,17 +6353,17 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
+    <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>145</v>
@@ -6360,17 +6377,17 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A152" s="39"/>
-      <c r="B152" s="39"/>
+    <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>146</v>
@@ -6384,20 +6401,20 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A153" s="39"/>
-      <c r="B153" s="39"/>
+    <row r="153" spans="1:10" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E153" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F153" s="30" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>8</v>
@@ -6407,23 +6424,23 @@
       </c>
       <c r="I153" s="30"/>
       <c r="J153" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>22</v>
@@ -6434,24 +6451,24 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A155" s="39" t="s">
+    <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>5</v>
@@ -6460,21 +6477,21 @@
         <v>13</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
+    <row r="156" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>148</v>
@@ -6488,17 +6505,17 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A157" s="39"/>
-      <c r="B157" s="39"/>
+    <row r="157" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="47"/>
+      <c r="B157" s="47"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>149</v>
@@ -6512,17 +6529,17 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A158" s="39"/>
-      <c r="B158" s="39"/>
+    <row r="158" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A158" s="47"/>
+      <c r="B158" s="47"/>
       <c r="C158" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>150</v>
@@ -6538,20 +6555,20 @@
       </c>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A159" s="39"/>
-      <c r="B159" s="39"/>
+    <row r="159" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>22</v>
@@ -6562,24 +6579,24 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A160" s="39" t="s">
+    <row r="160" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>5</v>
@@ -6588,21 +6605,21 @@
         <v>13</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
+    <row r="161" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>153</v>
@@ -6616,17 +6633,17 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
+    <row r="162" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>154</v>
@@ -6640,17 +6657,17 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
+    <row r="163" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>155</v>
@@ -6664,17 +6681,17 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
+    <row r="164" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>156</v>
@@ -6688,17 +6705,17 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
+    <row r="165" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>158</v>
@@ -6712,17 +6729,17 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A166" s="39"/>
-      <c r="B166" s="39"/>
+    <row r="166" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>160</v>
@@ -6736,17 +6753,17 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A167" s="39"/>
-      <c r="B167" s="39"/>
+    <row r="167" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>162</v>
@@ -6760,17 +6777,17 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
+    <row r="168" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>164</v>
@@ -6784,17 +6801,17 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
+    <row r="169" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>166</v>
@@ -6808,17 +6825,17 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
+    <row r="170" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>168</v>
@@ -6832,17 +6849,17 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
+    <row r="171" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>170</v>
@@ -6856,17 +6873,17 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
+    <row r="172" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>157</v>
@@ -6880,17 +6897,17 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
+    <row r="173" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>159</v>
@@ -6904,17 +6921,17 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
+    <row r="174" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>161</v>
@@ -6928,17 +6945,17 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
+    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>163</v>
@@ -6952,17 +6969,17 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
+    <row r="176" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>165</v>
@@ -6976,17 +6993,17 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A177" s="39"/>
-      <c r="B177" s="39"/>
+    <row r="177" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>167</v>
@@ -7000,17 +7017,17 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A178" s="39"/>
-      <c r="B178" s="39"/>
+    <row r="178" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>169</v>
@@ -7024,17 +7041,17 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
+    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>171</v>
@@ -7048,17 +7065,17 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A180" s="39"/>
-      <c r="B180" s="39"/>
+    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>172</v>
@@ -7072,17 +7089,17 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
+    <row r="181" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>173</v>
@@ -7096,20 +7113,20 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
+    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>22</v>
@@ -7120,24 +7137,24 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A183" s="39" t="s">
+    <row r="183" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B183" s="39" t="s">
+      <c r="B183" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>5</v>
@@ -7146,21 +7163,21 @@
         <v>13</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
+    <row r="184" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>175</v>
@@ -7174,17 +7191,17 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A185" s="39"/>
-      <c r="B185" s="39"/>
+    <row r="185" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>176</v>
@@ -7198,17 +7215,17 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A186" s="39"/>
-      <c r="B186" s="39"/>
+    <row r="186" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>177</v>
@@ -7222,17 +7239,17 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
+    <row r="187" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>179</v>
@@ -7246,17 +7263,17 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>178</v>
@@ -7270,17 +7287,17 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
+    <row r="189" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>180</v>
@@ -7296,20 +7313,20 @@
       </c>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
+    <row r="190" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A190" s="47"/>
+      <c r="B190" s="47"/>
       <c r="C190" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>11</v>
@@ -7318,24 +7335,24 @@
         <v>19</v>
       </c>
       <c r="I190" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A191" s="47"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
-      <c r="C191" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>12</v>
@@ -7345,23 +7362,23 @@
       </c>
       <c r="I191" s="5"/>
       <c r="J191" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>34</v>
@@ -7371,23 +7388,23 @@
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>35</v>
@@ -7397,23 +7414,23 @@
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>36</v>
@@ -7423,23 +7440,23 @@
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" s="29" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>72</v>
@@ -7449,23 +7466,23 @@
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>22</v>
@@ -7476,24 +7493,24 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A197" s="39" t="s">
+    <row r="197" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>5</v>
@@ -7502,21 +7519,21 @@
         <v>120</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
+    <row r="198" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>183</v>
@@ -7529,23 +7546,23 @@
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>22</v>
@@ -7556,24 +7573,24 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A200" s="39" t="s">
+    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B200" s="39" t="s">
+      <c r="B200" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>5</v>
@@ -7582,21 +7599,21 @@
         <v>47</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
+    <row r="201" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>185</v>
@@ -7608,24 +7625,24 @@
         <v>47</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" ht="59" x14ac:dyDescent="0.75">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
+    <row r="202" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>186</v>
+        <v>472</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>6</v>
@@ -7634,24 +7651,24 @@
         <v>47</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
+    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>7</v>
@@ -7662,20 +7679,20 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
+    <row r="204" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>188</v>
+        <v>471</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>8</v>
@@ -7686,20 +7703,20 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
+    <row r="205" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>9</v>
@@ -7708,24 +7725,24 @@
         <v>47</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
+    <row r="206" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>10</v>
@@ -7734,24 +7751,24 @@
         <v>47</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
+    <row r="207" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>22</v>
@@ -7762,24 +7779,24 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A208" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B208" s="39" t="s">
+    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B208" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>5</v>
@@ -7788,24 +7805,24 @@
         <v>47</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
+    <row r="209" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>4</v>
@@ -7816,20 +7833,20 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
+    <row r="210" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>6</v>
@@ -7840,20 +7857,20 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
-    <row r="211" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
+    <row r="211" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>7</v>
@@ -7863,23 +7880,23 @@
       </c>
       <c r="I211" s="5"/>
       <c r="J211" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>22</v>
@@ -7890,24 +7907,24 @@
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
-    <row r="213" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A213" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B213" s="39" t="s">
+    <row r="213" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B213" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>5</v>
@@ -7916,24 +7933,24 @@
         <v>47</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J213" s="5"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
+    <row r="214" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="47"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>4</v>
@@ -7942,24 +7959,24 @@
         <v>47</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J214" s="7"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
+    <row r="215" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="47"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>6</v>
@@ -7968,24 +7985,24 @@
         <v>47</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J215" s="7"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
+    <row r="216" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>7</v>
@@ -7994,24 +8011,24 @@
         <v>47</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J216" s="7"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
+    <row r="217" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="47"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>8</v>
@@ -8020,24 +8037,24 @@
         <v>47</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J217" s="7"/>
     </row>
-    <row r="218" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
+    <row r="218" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A218" s="47"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>9</v>
@@ -8048,20 +8065,20 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
+    <row r="219" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="47"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>22</v>
@@ -8072,24 +8089,24 @@
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
     </row>
-    <row r="220" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A220" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B220" s="39" t="s">
+    <row r="220" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B220" s="47" t="s">
         <v>78</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>5</v>
@@ -8098,24 +8115,24 @@
         <v>47</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J220" s="5"/>
     </row>
-    <row r="221" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
+    <row r="221" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>4</v>
@@ -8128,20 +8145,20 @@
       </c>
       <c r="J221" s="5"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A222" s="39"/>
-      <c r="B222" s="39"/>
+    <row r="222" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>6</v>
@@ -8152,20 +8169,20 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
     </row>
-    <row r="223" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A223" s="39"/>
-      <c r="B223" s="39"/>
+    <row r="223" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A223" s="47"/>
+      <c r="B223" s="47"/>
       <c r="C223" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>7</v>
@@ -8174,24 +8191,24 @@
         <v>47</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
+    <row r="224" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="47"/>
+      <c r="B224" s="47"/>
       <c r="C224" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>8</v>
@@ -8202,20 +8219,20 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
+    <row r="225" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="47"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>9</v>
@@ -8226,20 +8243,20 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A226" s="39"/>
-      <c r="B226" s="39"/>
+    <row r="226" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A226" s="47"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>10</v>
@@ -8250,20 +8267,20 @@
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
+    <row r="227" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="47"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>22</v>
@@ -8274,24 +8291,24 @@
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
     </row>
-    <row r="228" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A228" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B228" s="40" t="s">
+    <row r="228" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>5</v>
@@ -8300,24 +8317,24 @@
         <v>19</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J228" s="5"/>
     </row>
-    <row r="229" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A229" s="40"/>
-      <c r="B229" s="40"/>
+    <row r="229" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A229" s="46"/>
+      <c r="B229" s="46"/>
       <c r="C229" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>4</v>
@@ -8326,26 +8343,26 @@
         <v>19</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A230" s="40"/>
-      <c r="B230" s="40"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A230" s="46"/>
+      <c r="B230" s="46"/>
       <c r="C230" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>6</v>
@@ -8355,23 +8372,23 @@
       </c>
       <c r="I230" s="8"/>
       <c r="J230" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A231" s="40"/>
-      <c r="B231" s="40"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A231" s="46"/>
+      <c r="B231" s="46"/>
       <c r="C231" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>7</v>
@@ -8380,26 +8397,26 @@
         <v>19</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A232" s="40"/>
-      <c r="B232" s="40"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A232" s="46"/>
+      <c r="B232" s="46"/>
       <c r="C232" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>8</v>
@@ -8409,23 +8426,23 @@
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A233" s="46"/>
+      <c r="B233" s="46"/>
       <c r="C233" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>9</v>
@@ -8434,26 +8451,26 @@
         <v>19</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A234" s="46"/>
+      <c r="B234" s="46"/>
       <c r="C234" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>10</v>
@@ -8463,23 +8480,23 @@
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A235" s="46"/>
+      <c r="B235" s="46"/>
       <c r="C235" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>11</v>
@@ -8488,26 +8505,26 @@
         <v>19</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A236" s="46"/>
+      <c r="B236" s="46"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>12</v>
@@ -8517,23 +8534,23 @@
       </c>
       <c r="I236" s="6"/>
       <c r="J236" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A237" s="40"/>
-      <c r="B237" s="40"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="46"/>
+      <c r="B237" s="46"/>
       <c r="C237" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>22</v>
@@ -8544,24 +8561,24 @@
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A238" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B238" s="36" t="s">
+    <row r="238" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B238" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>5</v>
@@ -8570,24 +8587,24 @@
         <v>19</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J238" s="19"/>
     </row>
-    <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A239" s="37"/>
-      <c r="B239" s="37"/>
+    <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="38"/>
+      <c r="B239" s="38"/>
       <c r="C239" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>4</v>
@@ -8598,20 +8615,20 @@
       <c r="I239" s="6"/>
       <c r="J239" s="19"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A240" s="38"/>
-      <c r="B240" s="38"/>
+    <row r="240" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>6</v>
@@ -8622,24 +8639,24 @@
       <c r="I240" s="6"/>
       <c r="J240" s="19"/>
     </row>
-    <row r="241" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A241" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="B241" s="44" t="s">
+    <row r="241" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B241" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F241" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G241" s="25" t="s">
         <v>5</v>
@@ -8648,24 +8665,24 @@
         <v>19</v>
       </c>
       <c r="I241" s="25" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J241" s="26"/>
     </row>
-    <row r="242" spans="1:10" s="24" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A242" s="43"/>
-      <c r="B242" s="45"/>
+    <row r="242" spans="1:10" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A242" s="41"/>
+      <c r="B242" s="43"/>
       <c r="C242" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F242" s="25" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G242" s="25" t="s">
         <v>4</v>
@@ -8674,24 +8691,24 @@
         <v>19</v>
       </c>
       <c r="I242" s="25" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J242" s="26"/>
     </row>
-    <row r="243" spans="1:10" s="24" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A243" s="43"/>
-      <c r="B243" s="45"/>
+    <row r="243" spans="1:10" s="24" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A243" s="41"/>
+      <c r="B243" s="43"/>
       <c r="C243" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F243" s="25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G243" s="25" t="s">
         <v>6</v>
@@ -8700,24 +8717,24 @@
         <v>19</v>
       </c>
       <c r="I243" s="25" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J243" s="26"/>
     </row>
-    <row r="244" spans="1:10" s="24" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A244" s="43"/>
-      <c r="B244" s="45"/>
+    <row r="244" spans="1:10" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A244" s="41"/>
+      <c r="B244" s="43"/>
       <c r="C244" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E244" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F244" s="25" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G244" s="25" t="s">
         <v>7</v>
@@ -8726,24 +8743,24 @@
         <v>19</v>
       </c>
       <c r="I244" s="25" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J244" s="26"/>
     </row>
-    <row r="245" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A245" s="43"/>
-      <c r="B245" s="45"/>
+    <row r="245" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="41"/>
+      <c r="B245" s="43"/>
       <c r="C245" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E245" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F245" s="25" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G245" s="25" t="s">
         <v>8</v>
@@ -8754,20 +8771,20 @@
       <c r="I245" s="26"/>
       <c r="J245" s="26"/>
     </row>
-    <row r="246" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A246" s="43"/>
-      <c r="B246" s="45"/>
+    <row r="246" spans="1:10" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A246" s="41"/>
+      <c r="B246" s="43"/>
       <c r="C246" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E246" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F246" s="25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G246" s="25" t="s">
         <v>9</v>
@@ -8778,20 +8795,20 @@
       <c r="I246" s="26"/>
       <c r="J246" s="26"/>
     </row>
-    <row r="247" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A247" s="43"/>
-      <c r="B247" s="45"/>
+    <row r="247" spans="1:10" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A247" s="41"/>
+      <c r="B247" s="43"/>
       <c r="C247" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F247" s="25" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G247" s="25" t="s">
         <v>10</v>
@@ -8802,20 +8819,20 @@
       <c r="I247" s="26"/>
       <c r="J247" s="26"/>
     </row>
-    <row r="248" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A248" s="43"/>
-      <c r="B248" s="45"/>
+    <row r="248" spans="1:10" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A248" s="41"/>
+      <c r="B248" s="43"/>
       <c r="C248" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F248" s="25" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G248" s="25" t="s">
         <v>11</v>
@@ -8826,20 +8843,20 @@
       <c r="I248" s="26"/>
       <c r="J248" s="26"/>
     </row>
-    <row r="249" spans="1:10" s="24" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A249" s="43"/>
-      <c r="B249" s="45"/>
+    <row r="249" spans="1:10" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A249" s="41"/>
+      <c r="B249" s="43"/>
       <c r="C249" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F249" s="25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G249" s="25" t="s">
         <v>12</v>
@@ -8848,26 +8865,26 @@
         <v>19</v>
       </c>
       <c r="I249" s="25" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J249" s="26" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A250" s="43"/>
-      <c r="B250" s="45"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A250" s="41"/>
+      <c r="B250" s="43"/>
       <c r="C250" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F250" s="25" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G250" s="25" t="s">
         <v>34</v>
@@ -8876,24 +8893,24 @@
         <v>19</v>
       </c>
       <c r="I250" s="25" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J250" s="26"/>
     </row>
-    <row r="251" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A251" s="43"/>
-      <c r="B251" s="45"/>
+    <row r="251" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="41"/>
+      <c r="B251" s="43"/>
       <c r="C251" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F251" s="25" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G251" s="25" t="s">
         <v>35</v>
@@ -8904,20 +8921,20 @@
       <c r="I251" s="25"/>
       <c r="J251" s="26"/>
     </row>
-    <row r="252" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A252" s="43"/>
-      <c r="B252" s="45"/>
+    <row r="252" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="41"/>
+      <c r="B252" s="43"/>
       <c r="C252" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F252" s="25" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G252" s="25" t="s">
         <v>36</v>
@@ -8928,20 +8945,20 @@
       <c r="I252" s="25"/>
       <c r="J252" s="26"/>
     </row>
-    <row r="253" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A253" s="43"/>
-      <c r="B253" s="45"/>
+    <row r="253" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="41"/>
+      <c r="B253" s="43"/>
       <c r="C253" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E253" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F253" s="25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G253" s="27" t="s">
         <v>72</v>
@@ -8952,20 +8969,20 @@
       <c r="I253" s="25"/>
       <c r="J253" s="26"/>
     </row>
-    <row r="254" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A254" s="43"/>
-      <c r="B254" s="45"/>
+    <row r="254" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="41"/>
+      <c r="B254" s="43"/>
       <c r="C254" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E254" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F254" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G254" s="25" t="s">
         <v>73</v>
@@ -8976,20 +8993,20 @@
       <c r="I254" s="25"/>
       <c r="J254" s="26"/>
     </row>
-    <row r="255" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A255" s="43"/>
-      <c r="B255" s="45"/>
+    <row r="255" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="41"/>
+      <c r="B255" s="43"/>
       <c r="C255" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E255" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F255" s="25" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G255" s="25" t="s">
         <v>74</v>
@@ -9000,20 +9017,20 @@
       <c r="I255" s="25"/>
       <c r="J255" s="26"/>
     </row>
-    <row r="256" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A256" s="43"/>
-      <c r="B256" s="45"/>
+    <row r="256" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="41"/>
+      <c r="B256" s="43"/>
       <c r="C256" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E256" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F256" s="25" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G256" s="25" t="s">
         <v>75</v>
@@ -9024,20 +9041,20 @@
       <c r="I256" s="25"/>
       <c r="J256" s="26"/>
     </row>
-    <row r="257" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A257" s="43"/>
-      <c r="B257" s="45"/>
+    <row r="257" spans="1:10" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="41"/>
+      <c r="B257" s="43"/>
       <c r="C257" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E257" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F257" s="25" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G257" s="25" t="s">
         <v>76</v>
@@ -9048,20 +9065,20 @@
       <c r="I257" s="25"/>
       <c r="J257" s="26"/>
     </row>
-    <row r="258" spans="1:10" s="24" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A258" s="43"/>
-      <c r="B258" s="45"/>
+    <row r="258" spans="1:10" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A258" s="41"/>
+      <c r="B258" s="43"/>
       <c r="C258" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E258" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F258" s="25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G258" s="25" t="s">
         <v>77</v>
@@ -9072,24 +9089,24 @@
       <c r="I258" s="26"/>
       <c r="J258" s="26"/>
     </row>
-    <row r="259" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A259" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="B259" s="36" t="s">
+    <row r="259" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B259" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>5</v>
@@ -9098,24 +9115,24 @@
         <v>19</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J259" s="5"/>
     </row>
-    <row r="260" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A260" s="37"/>
-      <c r="B260" s="37"/>
+    <row r="260" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A260" s="38"/>
+      <c r="B260" s="38"/>
       <c r="C260" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>4</v>
@@ -9124,26 +9141,26 @@
         <v>19</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A261" s="38"/>
-      <c r="B261" s="38"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>6</v>
@@ -9153,22 +9170,22 @@
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C262" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D262" s="46"/>
-      <c r="E262" s="46"/>
-      <c r="F262" s="46"/>
+        <v>203</v>
+      </c>
+      <c r="C262" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D262" s="44"/>
+      <c r="E262" s="44"/>
+      <c r="F262" s="44"/>
       <c r="G262" s="5" t="s">
         <v>5</v>
       </c>
@@ -9181,41 +9198,6 @@
   </sheetData>
   <autoFilter ref="A2:J262" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="47">
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A241:A258"/>
-    <mergeCell ref="B241:B258"/>
-    <mergeCell ref="C262:F262"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="B31:B45"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="B46:B58"/>
-    <mergeCell ref="A59:A100"/>
-    <mergeCell ref="B59:B100"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="A115:A136"/>
-    <mergeCell ref="B115:B136"/>
-    <mergeCell ref="A137:A148"/>
-    <mergeCell ref="B137:B148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="A160:A182"/>
-    <mergeCell ref="B160:B182"/>
-    <mergeCell ref="A183:A196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B183:B196"/>
     <mergeCell ref="B238:B240"/>
     <mergeCell ref="A238:A240"/>
     <mergeCell ref="A220:A227"/>
@@ -9228,6 +9210,41 @@
     <mergeCell ref="B213:B219"/>
     <mergeCell ref="A228:A237"/>
     <mergeCell ref="B228:B237"/>
+    <mergeCell ref="A160:A182"/>
+    <mergeCell ref="B160:B182"/>
+    <mergeCell ref="A183:A196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B183:B196"/>
+    <mergeCell ref="A137:A148"/>
+    <mergeCell ref="B137:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="A59:A100"/>
+    <mergeCell ref="B59:B100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="A115:A136"/>
+    <mergeCell ref="B115:B136"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="B31:B45"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="B46:B58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A241:A258"/>
+    <mergeCell ref="B241:B258"/>
+    <mergeCell ref="C262:F262"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
